--- a/excel_data/test_excel_app.xlsx
+++ b/excel_data/test_excel_app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_project\ui_1129\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F356135-C94F-4975-8ABA-1657A4A5A931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642E737-D9AB-40CE-AB29-F8ACE3714DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3756" yWindow="756" windowWidth="17424" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app自动化" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>步骤ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,23 +67,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多次点击计次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_click_ele</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.android.qqdownloader:id/k_;;ID</t>
+    <t>key_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un_lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上滑动一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relative_swipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九宫格解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double_click_ele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.LinearLayout/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout[1]/android.widget.FrameLayout[2]/android.widget.FrameLayout[1]/android.widget.FrameLayout/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[3]/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ImageView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double_click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.E+00"/>
+    <numFmt numFmtId="176" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -175,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,10 +203,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -467,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C163C-78ED-454A-BAA0-6B65BD73118C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -532,30 +555,78 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
+      <c r="D7" s="4">
+        <v>1235789</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="306" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
